--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -1,40 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="13815" windowHeight="4050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Internship/Project</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Skills Learned</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>AYA</t>
+  </si>
+  <si>
+    <t>Automation Script</t>
+  </si>
+  <si>
+    <t>Python, Automation</t>
+  </si>
+  <si>
+    <t>School project</t>
+  </si>
+  <si>
+    <t>HIBA</t>
+  </si>
+  <si>
+    <t>Web Portfolio</t>
+  </si>
+  <si>
+    <t>HTML, CSS, Flask</t>
+  </si>
+  <si>
+    <t>Portfolio site</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,25 +96,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -137,6 +194,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,10 +207,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="202020"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -424,133 +486,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Internship/Project</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Skills Learned</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AYA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Automation Script</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
         <v>45839</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>45868</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Python, Automation</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>School project</t>
-        </is>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AYA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Automation Script</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>45839</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>45868</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Python, Automation</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>School project</t>
-        </is>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HIBA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Web Portfolio</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
         <v>45901</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>45930</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HTML, CSS, Flask</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Portfolio site</t>
-        </is>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
